--- a/inst/extdata/Biomedical_Data_Manifest_Template_Example.xlsx
+++ b/inst/extdata/Biomedical_Data_Manifest_Template_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bottomly/Desktop/github/BioDataManifest/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/696c3767ac3595cb/Desktop/github/BioDataManifest/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B09245-D0FC-424F-865F-D5AF7EA4602C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1433" windowWidth="20340" windowHeight="12067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,9 +546,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -581,8 +580,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -619,214 +618,214 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1231,16 +1230,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="BZ2" sqref="BZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="79" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:79" ht="41" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
